--- a/data-2020/11-grade.xlsx
+++ b/data-2020/11-grade.xlsx
@@ -6659,7 +6659,7 @@
     <t xml:space="preserve">3D Geometry</t>
   </si>
   <si>
-    <t xml:space="preserve">Divisibility</t>
+    <t xml:space="preserve">Divisibility,Factorials</t>
   </si>
   <si>
     <t xml:space="preserve">2D Geometry</t>
@@ -6825,7 +6825,7 @@
       <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.88"/>
@@ -58823,18 +58823,20 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="12.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="12.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.08"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data-2020/11-grade.xlsx
+++ b/data-2020/11-grade.xlsx
@@ -6665,7 +6665,7 @@
     <t xml:space="preserve">2D Geometry</t>
   </si>
   <si>
-    <t xml:space="preserve">Last digit of large number</t>
+    <t xml:space="preserve">Effective calculation of large number</t>
   </si>
   <si>
     <t xml:space="preserve">Prime numbers</t>
@@ -6819,13 +6819,13 @@
   </sheetPr>
   <dimension ref="A1:S1090"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.88"/>
@@ -58820,23 +58820,23 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="12.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.09"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
